--- a/biology/Médecine/Sang/Sang.xlsx
+++ b/biology/Médecine/Sang/Sang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sang est un liquide biologique vital qui circule continuellement dans les vaisseaux sanguins et le cœur, notamment grâce à la pompe cardiaque. Il est composé d'un fluide aqueux, le plasma, et de milliards de cellules, principalement les globules rouges, qui lui donnent sa couleur.
 Ce liquide transporte le dioxygène (O2) et les éléments nutritifs nécessaires aux processus vitaux de tous les tissus du corps, ainsi que les déchets, tels que le dioxyde de carbone (CO2) ou les déchets azotés, vers les sites d'évacuation (reins, poumons, foie, intestins). Il permet également d'acheminer les cellules et les molécules du système immunitaire vers les tissus, et de diffuser les hormones dans tout l’organisme.
@@ -513,16 +525,12 @@
           <t>Origines du sang</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sang est à première vue reconnaissable à l'ouverture des tout premiers vertébrés, comme la lamproie marine (Petromyzon marinus), espèce vivant encore actuellement. Dans la classification phylogénétique, depuis le Cambrien (environ 500 millions d'années), les Petromyzontidae présentaient déjà une hémoglobine permettant le transport du dioxygène vers les tissus, dans une circulation fermée, où le sang pouvait conserver ses propriétés.
 Normalement inapparent, c'est par son écoulement (le saignement), qu'il a commencé à être reconnu et identifié par ses particularités sensorielles (couleur, odeur, goût, toucher) avant les analyses physico-chimiques plus spécifiques. En cas de brèche ou d'effraction des vaisseaux, ses propriétés de fluide mobile coloré se transforment spontanément, rapidement et irréversiblement, le sang versé signant ainsi l'atteinte de l'intégrité d'un organisme vivant évolué — et par là donc, sa vulnérabilité — et cette caractéristique participe depuis, au cycle des comportements de prédation de très nombreuses espèces.
-Chez les chordés
-Chez les chordés, l'oxygène est transporté par l'hémoglobine, qui colore le sang en rouge. Il devient rouge clair lors de l’oxygénation dans les poumons ou les branchies. De couleur rouge dans les artères, il devient ensuite rouge foncé quand il perd son dioxygène au profit des tissus. En observant les veines au travers des peaux claires, le sang paraît bleu mais il est bien rouge sombre, même à l’intérieur des veines. C'est la peau qui agit comme un filtre, ne laissant passer que le bleu[1].
-Le cœur met le sang en circulation dans tout l’organisme. Il passe par les poumons (petite circulation) pour se charger en dioxygène et évacuer le dioxyde de carbone, et circule ensuite à travers le corps via les vaisseaux sanguins (grande circulation). Il libère son dioxygène et prend en charge le dioxyde de carbone au niveau des capillaires sanguins qui sont les plus petits vaisseaux sanguins de l’organisme. Dans son état désoxygéné, sa couleur rouge est moins brillante (comme dans le cas du sang veineux périphérique, par exemple).
-Le sang véhicule les déchets métaboliques des organes qui sont toxiques au-delà d'une certaine concentration. Le foie et les reins extraient ces déchets, évacués dans la bile et les urines.
-Chez d'autres animaux
-Chez les arthropodes (l'embranchement des arthropodes est de très loin celui qui possède le plus d'espèces et le plus d'individus de tout le règne animal, comme les crustacés, les arachnides et les insectes), mais aussi chez les mollusques, c'est l'atome de cuivre (et non de fer) qui transporte l'oxygène dans l'hémocyanine, d'où un sang bleu-vert[2].
 </t>
         </is>
       </c>
@@ -548,14 +556,127 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Origines du sang</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chez les chordés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les chordés, l'oxygène est transporté par l'hémoglobine, qui colore le sang en rouge. Il devient rouge clair lors de l’oxygénation dans les poumons ou les branchies. De couleur rouge dans les artères, il devient ensuite rouge foncé quand il perd son dioxygène au profit des tissus. En observant les veines au travers des peaux claires, le sang paraît bleu mais il est bien rouge sombre, même à l’intérieur des veines. C'est la peau qui agit comme un filtre, ne laissant passer que le bleu.
+Le cœur met le sang en circulation dans tout l’organisme. Il passe par les poumons (petite circulation) pour se charger en dioxygène et évacuer le dioxyde de carbone, et circule ensuite à travers le corps via les vaisseaux sanguins (grande circulation). Il libère son dioxygène et prend en charge le dioxyde de carbone au niveau des capillaires sanguins qui sont les plus petits vaisseaux sanguins de l’organisme. Dans son état désoxygéné, sa couleur rouge est moins brillante (comme dans le cas du sang veineux périphérique, par exemple).
+Le sang véhicule les déchets métaboliques des organes qui sont toxiques au-delà d'une certaine concentration. Le foie et les reins extraient ces déchets, évacués dans la bile et les urines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sang</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sang</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Origines du sang</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chez d'autres animaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les arthropodes (l'embranchement des arthropodes est de très loin celui qui possède le plus d'espèces et le plus d'individus de tout le règne animal, comme les crustacés, les arachnides et les insectes), mais aussi chez les mollusques, c'est l'atome de cuivre (et non de fer) qui transporte l'oxygène dans l'hémocyanine, d'où un sang bleu-vert.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sang</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sang</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En tant que tissu conjonctif liquide, le sang contient des éléments cellulaires et des substances fondamentales, sans fibres, contrairement aux tissus conjonctifs solides. Son pH varie entre 7,35 et 7,45[3]. Sa couleur provient de l'hémoglobine (protéine comportant quatre hèmes).
-Éléments figurés
-Érythrocytes ou hématies ou globules rouges (à peu près 99 %). Elles ne possèdent ni noyau ni organites chez les Mammifères, mais chez d'autres groupes comme les Oiseaux c'est le cas.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant que tissu conjonctif liquide, le sang contient des éléments cellulaires et des substances fondamentales, sans fibres, contrairement aux tissus conjonctifs solides. Son pH varie entre 7,35 et 7,45. Sa couleur provient de l'hémoglobine (protéine comportant quatre hèmes).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sang</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sang</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éléments figurés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Érythrocytes ou hématies ou globules rouges (à peu près 99 %). Elles ne possèdent ni noyau ni organites chez les Mammifères, mais chez d'autres groupes comme les Oiseaux c'est le cas.
 Elles contiennent l’hémoglobine (1⁄3 des composants du cytoplasme) qui permet de transporter l’oxygène ainsi que le fer mais aussi le dioxyde de carbone ou le monoxyde de carbone. Elles contiennent également des enzymes leur permettant de fonctionner et de survivre. Leur durée de vie est de 120 jours et leur destruction est opérée au niveau de la rate et l'hémoglobine est récupérée par les macrophages du foie, de la rate et de la moelle osseuse.
 Leucocytes ou globules blancs (0,2 %), qui font partie du système immunitaire et permettent la destruction des agents infectieux. Les leucocytes sont un ensemble hétéroclite de cellules :
 les granulocytes ou polynucléaires (neutrophiles, éosinophiles, basophiles) ;
@@ -563,8 +684,43 @@
 les monocytes.
 Thrombocytes ou plaquettes (0,6 - 1,0 %), responsables de la formation du clou plaquettaire précédant la coagulation sanguine. Ils ne contiennent pas de noyau ; ce sont des fragments de cellule provenant de leurs précurseurs, les mégacaryocytes.
 Ces éléments figurés constituent 45 % du sang (voir hématocrite), ce sont toutes les cellules contenues dans le sang. Les 55 % restants constituent le plasma sanguin, un liquide jaunâtre qui est la phase liquide dans laquelle sont en suspension les éléments figurés.
-Plasma sanguin
-Le plasma est la composante liquide du sang dans laquelle baignent les éléments figurés. Il est constitué d’eau, d’ions et de différentes molécules qui sont ainsi transportées à travers l’organisme. Il faut encore le distinguer du sérum sanguin, liquide issu d'un caillot sanguin rétracté, dont la composition est un peu différente de celle du plasma sanguin, car dépourvu en particulier du fibrinogène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sang</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sang</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plasma sanguin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le plasma est la composante liquide du sang dans laquelle baignent les éléments figurés. Il est constitué d’eau, d’ions et de différentes molécules qui sont ainsi transportées à travers l’organisme. Il faut encore le distinguer du sérum sanguin, liquide issu d'un caillot sanguin rétracté, dont la composition est un peu différente de celle du plasma sanguin, car dépourvu en particulier du fibrinogène.
 Les principales molécules du soluté du plasma (le solvant étant l'eau qui est la principale composante du sang) sont :
 le glucose ;
 les lipides ;
@@ -576,35 +732,37 @@
 Certains de ces éléments sont des hormones, pouvant être des protéines, des acides aminés modifiés, des stéroïdes, ou des lipides modifiés (dont les prostaglandines et les thromboxanes).
 Autres composants potentiels :
 microbes et parasites ;
-molécules d'origine exogène : médicaments, résidus de pesticides, métaux lourds et métalloïdes, radionucléides sous forme ionique libre ou associée à des protéines ou d'autres molécules transporteuses (dont chélatrices). En 2010, il a été proposé de compléter les bilans sanguins et bilans de santé classiques par un profil métallique[4][réf. à confirmer].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sang</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sang</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+molécules d'origine exogène : médicaments, résidus de pesticides, métaux lourds et métalloïdes, radionucléides sous forme ionique libre ou associée à des protéines ou d'autres molécules transporteuses (dont chélatrices). En 2010, il a été proposé de compléter les bilans sanguins et bilans de santé classiques par un profil métallique[réf. à confirmer].</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sang</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sang</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fonction de transport : le sang (liquide circulant) assure une double fonction de transport, il distribue l’oxygène et les nutriments nécessaires au fonctionnement et à la survie de toutes cellules du corps et en même temps, récupère le dioxyde de carbone et les déchets (urée) qui résultent de l’activité de tout organe vivant.
 Le sang est constitué d’un liquide presque incolore très riche en eau (le plasma) dans lequel baignent des globules rouges, des globules blancs et des coagulants.
@@ -617,31 +775,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sang</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sang</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sang</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sang</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Étude</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sang peut être fractionné entre ses différents composants de deux façons, selon l'utilisation d'anticoagulant.
 Si le sang est prélevé sur un anticoagulant (comme l'EDTA), la centrifugation sépare 2 phases, un surnageant jaunâtre, le plasma, et un culot, constitué par les hématies, dont la hauteur dans le tube définit l'hématocrite, normalement de 45 %. À l’interface entre ces 2 phases, on peut observer un mince anneau blanchâtre contenant les leucocytes et les plaquettes. Une simple agitation permet de mélanger tous ces composants et de les remettre en suspension.
@@ -650,31 +810,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sang</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sang</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sang</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sang</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Santé</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>L’hématologie est la spécialité médicale chargée de l’étude des affections de la circulation sanguine :
 Les principales affections hématologiques sont :
@@ -695,31 +857,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sang</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sang</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sang</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sang chez l’être humain</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'humain, le sang représente en moyenne 7 à 8 % de sa masse corporelle.
 Son parcours à travers le corps humain peut être résumé en une série de différentes étapes.
@@ -727,53 +891,163 @@
 Le sang circule, toujours dans le même sens, à l’intérieur d’un circuit entièrement clos formé de vaisseaux sanguins de divers calibres, répartis dans tout le corps. Les contractions du cœur assurent la circulation du sang. Quatre valves dont deux atrio-ventriculaires (entre l'oreillette et le ventricule du cœur) et deux ventriculaires (entre le ventricule du cœur et l'artère) assurent la circulation unidirectionnelle du sang dans l'organisme.
 Le passage du sang des oreillettes aux ventricules est appelé systole auriculaire, celui des ventricules vers l'aorte ou l'artère pulmonaire systole ventriculaire. La diastole, période de relâchement du myocarde, permet quant à elle le remplissage en sang des ventricules et oreillettes.
 Le cœur est une pompe foulante et aspirante qui éjecte le sang dans les vaisseaux de l’appareil circulatoire et qui contribue au retour veineux.
-Quelques chiffres
-Dans le corps d’un homme de 65 kg, circulent 5  à   6 litres de sang, 4  à   5 litres chez une femme (augmentant jusqu'à 5  à   6 litres en cours de grossesse)[5], dans celui d’un enfant, environ 3 litres et 250 millilitres pour un nouveau-né.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sang</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sang</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sang chez l’être humain</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Quelques chiffres</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le corps d’un homme de 65 kg, circulent 5  à   6 litres de sang, 4  à   5 litres chez une femme (augmentant jusqu'à 5  à   6 litres en cours de grossesse), dans celui d’un enfant, environ 3 litres et 250 millilitres pour un nouveau-né.
 Dans la moelle rouge des os, naissent chaque jour environ :
-200 milliards de globules rouges[6] ; et l'organisme doit en produire 2 millions de nouveaux par seconde afin d'en garder constante la quantité totale ;
+200 milliards de globules rouges ; et l'organisme doit en produire 2 millions de nouveaux par seconde afin d'en garder constante la quantité totale ;
 plusieurs milliards de globules blancs. Toutefois, ils sont 600 fois moins nombreux que les globules rouges (pour un seul globule blanc, il y a environ 30 plaquettes et 600 globules rouges).
-Le sang est composé de 54 % de plasma, 45 % de globules rouges (encore appelés hématies) et 1 % de globules blancs (aussi appelés leucocytes) et de plaquettes (ou thrombocytes)[7].
-Un millilitre de sang contient 0,5 mg de fer[8].
-Au niveau mondial, l'exportation de sang humain et de sérum a représenté un marché de 127,6 milliards de dollars américains en 2015, en hausse de 41,9 % depuis 2009 (soit plus que les ventes à l'exportation de l’industrie aérospatiale)[9].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sang</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sang</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Le sang est composé de 54 % de plasma, 45 % de globules rouges (encore appelés hématies) et 1 % de globules blancs (aussi appelés leucocytes) et de plaquettes (ou thrombocytes).
+Un millilitre de sang contient 0,5 mg de fer.
+Au niveau mondial, l'exportation de sang humain et de sérum a représenté un marché de 127,6 milliards de dollars américains en 2015, en hausse de 41,9 % depuis 2009 (soit plus que les ventes à l'exportation de l’industrie aérospatiale).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sang</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sang</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Symbolique et croyances</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sur le plan religieux
-Le christianisme a rapidement abandonné les règles de la cacherout, mais l’interdit du sang issu des lois noahides est repris dans les Actes des Apôtres 15[10] : « Lorsqu’ils eurent cessé de parler, Jacques prit la parole, et dit : […] je suis d’avis qu’on ne crée pas des difficultés à ceux des païens qui se convertissent à Dieu, mais qu’on leur écrive de s’abstenir des souillures des idoles, de l’impudicité, des animaux étouffés et du sang ». L'interdiction des animaux étouffés va dans le même sens que l'interdiction du sang : un animal étouffé (non égorgé) reste rempli de son sang.
-Aussi, certains groupes religieux chrétiens l'appliquent également, tels les Témoins de Jéhovah qui vont jusqu’à prohiber la transfusion sanguine, présentée comme une violation de la loi divine[11].
-Sang menstruel
-La perte de sang liée à la menstruation est un phénomène physiologique « spectaculaire », à l'origine de nombreuses croyances et tabous culturels ; Cesare Lombroso la liait ainsi à la criminalité féminine[12].
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sur le plan religieux</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le christianisme a rapidement abandonné les règles de la cacherout, mais l’interdit du sang issu des lois noahides est repris dans les Actes des Apôtres 15 : « Lorsqu’ils eurent cessé de parler, Jacques prit la parole, et dit : […] je suis d’avis qu’on ne crée pas des difficultés à ceux des païens qui se convertissent à Dieu, mais qu’on leur écrive de s’abstenir des souillures des idoles, de l’impudicité, des animaux étouffés et du sang ». L'interdiction des animaux étouffés va dans le même sens que l'interdiction du sang : un animal étouffé (non égorgé) reste rempli de son sang.
+Aussi, certains groupes religieux chrétiens l'appliquent également, tels les Témoins de Jéhovah qui vont jusqu’à prohiber la transfusion sanguine, présentée comme une violation de la loi divine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sang</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sang</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Symbolique et croyances</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sang menstruel</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La perte de sang liée à la menstruation est un phénomène physiologique « spectaculaire », à l'origine de nombreuses croyances et tabous culturels ; Cesare Lombroso la liait ainsi à la criminalité féminine.
 Masters et Johnson rappellent :
-« En 1878, le prestigieux British Médical Journal édita une série de lettres de médecins qui donnaient des « preuves » que le contact d’une femme qui avait ses règles pouvait abîmer le jambon qu’elle avait touché[13]. »
-Théorie des humeurs
-Le sang fait partie des quatre humeurs d'Hippocrate :
+« En 1878, le prestigieux British Médical Journal édita une série de lettres de médecins qui donnaient des « preuves » que le contact d’une femme qui avait ses règles pouvait abîmer le jambon qu’elle avait touché. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sang</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sang</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Symbolique et croyances</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Théorie des humeurs</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le sang fait partie des quatre humeurs d'Hippocrate :
 le sang : venant du cœur (caractère jovial, chaleureux) ;
 la pituite : rattachée au cerveau (caractère lymphatique) ;
 la bile jaune : venant du foie (caractère anxieux) ;
